--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game Programming\Game01\Game01\Assets\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab409\OneDrive\Desktop\GitHub\Game01\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop" sheetId="1" r:id="rId1"/>
+    <sheet name="Shop" sheetId="2" r:id="rId1"/>
+    <sheet name="Game_Base" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,17 +25,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>DataKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Goods</t>
+  </si>
+  <si>
+    <t>GoodsAmount</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Shop_Gold_01</t>
+  </si>
+  <si>
+    <t>Item_ETC_Diamond</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_01</t>
+  </si>
+  <si>
+    <t>Description_Item_ETC_Diamond</t>
+  </si>
+  <si>
+    <t>Shop_Gold_02</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_02</t>
+  </si>
+  <si>
+    <t>Shop_Gold_03</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_03</t>
+  </si>
+  <si>
+    <t>Shop_Gold_04</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_04</t>
+  </si>
+  <si>
+    <t>Shop_Gold_05</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_05</t>
+  </si>
+  <si>
+    <t>Shop_Gold_06</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_06</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>Description_InAppKey_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datakey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Base_Initial_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,12 +225,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +253,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -365,27 +540,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"Var_"&amp;B2</f>
+        <v>Var_int</v>
+      </c>
+      <c r="C1" t="str">
+        <f t="shared" ref="C1:G1" si="0">"Var_"&amp;C2</f>
+        <v>Var_float</v>
+      </c>
+      <c r="D1" t="str">
+        <f t="shared" si="0"/>
+        <v>Var_string</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" si="0"/>
+        <v>Var_list_int</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" si="0"/>
+        <v>Var_list_float</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>Var_list_string</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>DataKey</t>
   </si>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Kinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,12 +567,12 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,17 +582,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -586,15 +608,21 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -604,15 +632,22 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>"Name_"&amp;A3</f>
+        <v>Name_Shop_Gold_01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -622,15 +657,22 @@
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H14" si="0">"Name_"&amp;A4</f>
+        <v>Name_Shop_Gold_02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -640,15 +682,22 @@
       <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Gold_03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -658,15 +707,22 @@
       <c r="C6">
         <v>80</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Gold_04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -676,15 +732,22 @@
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Gold_05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -694,15 +757,22 @@
       <c r="C8">
         <v>150</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Gold_06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -712,15 +782,22 @@
       <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -730,15 +807,22 @@
       <c r="C10">
         <v>-1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -748,15 +832,22 @@
       <c r="C11">
         <v>-1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -766,15 +857,22 @@
       <c r="C12">
         <v>-1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -784,15 +882,22 @@
       <c r="C13">
         <v>-1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -802,12 +907,19 @@
       <c r="C14">
         <v>-1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>42</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Name_Shop_Diamond_06</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="2" r:id="rId1"/>
-    <sheet name="Game_Base" sheetId="3" r:id="rId2"/>
+    <sheet name="Item_ETC" sheetId="4" r:id="rId2"/>
+    <sheet name="Localization" sheetId="5" r:id="rId3"/>
+    <sheet name="Game_Base" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>DataKey</t>
   </si>
@@ -48,175 +50,369 @@
     <t>Item_ETC_Diamond</t>
   </si>
   <si>
+    <t>Description_Item_ETC_Diamond</t>
+  </si>
+  <si>
+    <t>Shop_Gold_02</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_02</t>
+  </si>
+  <si>
+    <t>Shop_Gold_03</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_03</t>
+  </si>
+  <si>
+    <t>Shop_Gold_04</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_04</t>
+  </si>
+  <si>
+    <t>Shop_Gold_05</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_05</t>
+  </si>
+  <si>
+    <t>Shop_Gold_06</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Gold_06</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>InAppKey_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>Icon_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datakey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Base_Initial_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Kinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Shop_Gold_01</t>
+  </si>
+  <si>
+    <t>Description_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_01</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_02</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_03</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_04</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_05</t>
+  </si>
+  <si>
+    <t>Name_Shop_Gold_06</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_02</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_03</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_04</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_05</t>
+  </si>
+  <si>
+    <t>Name_Shop_Diamond_06</t>
+  </si>
+  <si>
+    <t>DataKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ETC_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ETC_Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매 x 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 30</t>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 40</t>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 50</t>
+  </si>
+  <si>
+    <t>다이아몬드 구매 x 60</t>
+  </si>
+  <si>
+    <t>골드 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Gold x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Gold x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Gold x 30</t>
+  </si>
+  <si>
+    <t>Purchase Gold x 40</t>
+  </si>
+  <si>
+    <t>Purchase Gold x 50</t>
+  </si>
+  <si>
+    <t>Purchase Gold x 60</t>
+  </si>
+  <si>
+    <t>Purchase Diamond x 60</t>
+  </si>
+  <si>
+    <t>Purchase Diamond x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Diamond x 30</t>
+  </si>
+  <si>
+    <t>Purchase Diamond x 40</t>
+  </si>
+  <si>
+    <t>Purchase Diamond x 50</t>
+  </si>
+  <si>
+    <t>Purchase Diamond x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Item_ETC_Gold</t>
+  </si>
+  <si>
+    <t>Name_Item_ETC_Diamond</t>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description_Item_ETC_Gold</t>
+  </si>
+  <si>
+    <t>다양한 아이템을 구매 할 수 있는 재화 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 아이템을 구매 할 수 있는 고급 재화 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a high-end product that you can buy various items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a product where you can buy various items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Icon_Shop_Gold_01</t>
-  </si>
-  <si>
-    <t>Description_Item_ETC_Diamond</t>
-  </si>
-  <si>
-    <t>Shop_Gold_02</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Gold_02</t>
-  </si>
-  <si>
-    <t>Shop_Gold_03</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Gold_03</t>
-  </si>
-  <si>
-    <t>Shop_Gold_04</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Gold_04</t>
-  </si>
-  <si>
-    <t>Shop_Gold_05</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Gold_05</t>
-  </si>
-  <si>
-    <t>Shop_Gold_06</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Gold_06</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_01</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_01</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_01</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_01</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_02</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_02</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_02</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_02</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_03</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_03</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_03</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_03</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_04</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_04</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_04</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_04</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_05</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_05</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_05</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_05</t>
-  </si>
-  <si>
-    <t>Shop_Diamond_06</t>
-  </si>
-  <si>
-    <t>InAppKey_Shop_Diamond_06</t>
-  </si>
-  <si>
-    <t>Icon_Shop_Diamond_06</t>
-  </si>
-  <si>
-    <t>Description_InAppKey_Shop_Diamond_06</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IGNORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Datakey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game_Base_Initial_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop_Kinds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +755,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -595,31 +791,31 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -637,10 +833,11 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>112</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G8" si="0">"Description_"&amp;A3</f>
+        <v>Description_Shop_Gold_01</v>
       </c>
       <c r="H3" t="str">
         <f>"Name_"&amp;A3</f>
@@ -649,7 +846,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -662,19 +859,20 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Description_Shop_Gold_02</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H14" si="0">"Name_"&amp;A4</f>
+        <f t="shared" ref="H4:H14" si="1">"Name_"&amp;A4</f>
         <v>Name_Shop_Gold_02</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -687,19 +885,20 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Description_Shop_Gold_03</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Gold_03</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -712,19 +911,20 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Description_Shop_Gold_04</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Gold_04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -737,19 +937,20 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Description_Shop_Gold_05</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Gold_05</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -762,22 +963,23 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Description_Shop_Gold_06</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Gold_06</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -787,22 +989,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"Description_"&amp;A9</f>
+        <v>Description_Shop_Diamond_01</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_01</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -812,22 +1015,23 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G14" si="2">"Description_"&amp;A10</f>
+        <v>Description_Shop_Diamond_02</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_02</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -837,22 +1041,23 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>Description_Shop_Diamond_03</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_03</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -862,22 +1067,23 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>Description_Shop_Diamond_04</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_04</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -887,22 +1093,23 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>Description_Shop_Diamond_05</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_05</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -912,13 +1119,14 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>Description_Shop_Diamond_06</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_06</v>
       </c>
     </row>
@@ -930,6 +1138,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"Name_"&amp;A2</f>
+        <v>Name_Item_ETC_Gold</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Description_"&amp;A2</f>
+        <v>Description_Item_ETC_Gold</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"Icon_"&amp;A2</f>
+        <v>Icon_Item_ETC_Gold</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"Name_"&amp;A3</f>
+        <v>Name_Item_ETC_Diamond</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"Description_"&amp;A3</f>
+        <v>Description_Item_ETC_Diamond</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"Icon_"&amp;A3</f>
+        <v>Icon_Item_ETC_Diamond</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -948,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" t="str">
         <f>"Var_"&amp;B2</f>
@@ -977,30 +1496,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1012,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab409\OneDrive\Desktop\GitHub\Game01\Assets\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Game01\Assets\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop" sheetId="2" r:id="rId1"/>
-    <sheet name="Item_ETC" sheetId="4" r:id="rId2"/>
-    <sheet name="Localization" sheetId="5" r:id="rId3"/>
-    <sheet name="Game_Base" sheetId="3" r:id="rId4"/>
+    <sheet name="Game_Stage" sheetId="6" r:id="rId1"/>
+    <sheet name="Shop" sheetId="2" r:id="rId2"/>
+    <sheet name="Item_ETC" sheetId="4" r:id="rId3"/>
+    <sheet name="Localization" sheetId="5" r:id="rId4"/>
+    <sheet name="Game_Base" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="160">
   <si>
     <t>DataKey</t>
   </si>
@@ -413,13 +414,190 @@
   </si>
   <si>
     <t>Icon_Shop_Gold_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_Game_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 점수 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[별 1, 별 2 , 별3]</t>
+  </si>
+  <si>
+    <t>Stage_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_02</t>
+  </si>
+  <si>
+    <t>Stage_03</t>
+  </si>
+  <si>
+    <t>Stage_04</t>
+  </si>
+  <si>
+    <t>Stage_05</t>
+  </si>
+  <si>
+    <t>Stage_06</t>
+  </si>
+  <si>
+    <t>Stage_07</t>
+  </si>
+  <si>
+    <t>Stage_08</t>
+  </si>
+  <si>
+    <t>Stage_09</t>
+  </si>
+  <si>
+    <t>Stage_10</t>
+  </si>
+  <si>
+    <t>[100,1500,2000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,2000,2000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,2000,2500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,2500,3000]</t>
+  </si>
+  <si>
+    <t>[100,2500,3000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 클리어 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameType_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameType_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Red"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Red", "Blue"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Red", "Blue", "Purple"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Obstacle_1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Obstacle_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Red","Obstacle_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,15,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Random","Obstacle_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----Block Type----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>└ 기본 타일 중 한개 랜덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>└ 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>└ 돌맹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Yellow","Obstacle_0"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,12 +643,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,23 +936,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"Map_Data_"&amp;A3</f>
+        <v>Map_Data_Stage_01</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B12" si="0">"Map_Data_"&amp;A4</f>
+        <v>Map_Data_Stage_02</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_03</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_04</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_05</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_06</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_07</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_08</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_09</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Map_Data_Stage_10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +1275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -818,7 +1299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -844,7 +1325,7 @@
         <v>Name_Shop_Gold_01</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -870,7 +1351,7 @@
         <v>Name_Shop_Gold_02</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1377,7 @@
         <v>Name_Shop_Gold_03</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -922,7 +1403,7 @@
         <v>Name_Shop_Gold_04</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -948,7 +1429,7 @@
         <v>Name_Shop_Gold_05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -974,7 +1455,7 @@
         <v>Name_Shop_Gold_06</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1481,7 @@
         <v>Name_Shop_Diamond_01</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1507,7 @@
         <v>Name_Shop_Diamond_02</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1533,7 @@
         <v>Name_Shop_Diamond_03</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1559,7 @@
         <v>Name_Shop_Diamond_04</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1585,7 @@
         <v>Name_Shop_Diamond_05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1137,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1145,14 +1626,14 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1166,7 +1647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1183,7 +1664,7 @@
         <v>Icon_Item_ETC_Gold</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1206,7 +1687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1214,14 +1695,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1232,7 +1713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1254,7 +1735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1265,7 +1746,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1276,7 +1757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1287,7 +1768,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1298,7 +1779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1320,7 +1801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1331,7 +1812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1342,7 +1823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1353,7 +1834,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1364,7 +1845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1375,7 +1856,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1386,7 +1867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1397,7 +1878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -1408,7 +1889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1419,7 +1900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1430,7 +1911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1456,16 +1937,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1494,7 +1975,7 @@
         <v>Var_list_string</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1517,7 +1998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>46</v>
       </c>

--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Game_Stage" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
   <si>
     <t>DataKey</t>
   </si>
@@ -591,6 +591,30 @@
   </si>
   <si>
     <t>["Yellow","Obstacle_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ETC_Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ETC_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1233,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1247,9 +1271,11 @@
     <col min="4" max="5" width="14.19921875" customWidth="1"/>
     <col min="6" max="6" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,8 +1300,14 @@
       <c r="H1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1298,8 +1330,14 @@
       <c r="H2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1324,8 +1362,14 @@
         <f>"Name_"&amp;A3</f>
         <v>Name_Shop_Gold_01</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +1394,14 @@
         <f t="shared" ref="H4:H14" si="1">"Name_"&amp;A4</f>
         <v>Name_Shop_Gold_02</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1376,8 +1426,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Gold_03</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1402,8 +1458,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Gold_04</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1428,8 +1490,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Gold_05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1454,8 +1522,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Gold_06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1480,8 +1554,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_01</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1506,8 +1586,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_02</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1532,8 +1618,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_03</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1558,8 +1650,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_04</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1584,8 +1682,14 @@
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_05</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1609,6 +1713,12 @@
       <c r="H14" t="str">
         <f t="shared" si="1"/>
         <v>Name_Shop_Diamond_06</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataBase/DataBase.xlsx
+++ b/Assets/DataBase/DataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Game_Stage" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
   <si>
     <t>DataKey</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Shop_Diamond_01</t>
   </si>
   <si>
-    <t>InAppKey_Shop_Diamond_01</t>
-  </si>
-  <si>
     <t>Icon_Shop_Diamond_01</t>
   </si>
   <si>
@@ -615,6 +612,13 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Base_Ads_Shop_Diamond_01</t>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,275 +982,275 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="str">
         <f>"Map_Data_"&amp;A3</f>
         <v>Map_Data_Stage_01</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B12" si="0">"Map_Data_"&amp;A4</f>
         <v>Map_Data_Stage_02</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_03</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_04</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_05</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_06</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_07</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_08</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_09</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>Map_Data_Stage_10</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1259,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1286,10 +1290,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1298,43 +1302,43 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G8" si="0">"Description_"&amp;A3</f>
@@ -1363,7 +1367,7 @@
         <v>Name_Shop_Gold_01</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -1395,7 +1399,7 @@
         <v>Name_Shop_Gold_02</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4">
         <v>300</v>
@@ -1427,7 +1431,7 @@
         <v>Name_Shop_Gold_03</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5">
         <v>500</v>
@@ -1459,7 +1463,7 @@
         <v>Name_Shop_Gold_04</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J6">
         <v>800</v>
@@ -1491,7 +1495,7 @@
         <v>Name_Shop_Gold_05</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -1523,7 +1527,7 @@
         <v>Name_Shop_Gold_06</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8">
         <v>1500</v>
@@ -1533,8 +1537,9 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="B9" t="str">
+        <f>"Game_Base_Ads_"&amp;A9</f>
+        <v>Game_Base_Ads_Shop_Diamond_01</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1544,7 +1549,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="str">
         <f>"Description_"&amp;A9</f>
@@ -1555,7 +1560,7 @@
         <v>Name_Shop_Diamond_01</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9">
         <v>30</v>
@@ -1563,10 +1568,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1576,7 +1581,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:G14" si="2">"Description_"&amp;A10</f>
@@ -1587,7 +1592,7 @@
         <v>Name_Shop_Diamond_02</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10">
         <v>50</v>
@@ -1595,10 +1600,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1608,7 +1613,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
@@ -1619,7 +1624,7 @@
         <v>Name_Shop_Diamond_03</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1627,10 +1632,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
@@ -1651,7 +1656,7 @@
         <v>Name_Shop_Diamond_04</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12">
         <v>150</v>
@@ -1659,10 +1664,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1672,7 +1677,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
@@ -1683,7 +1688,7 @@
         <v>Name_Shop_Diamond_05</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1691,10 +1696,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1704,7 +1709,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
@@ -1715,7 +1720,7 @@
         <v>Name_Shop_Diamond_06</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14">
         <v>500</v>
@@ -1745,21 +1750,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="str">
         <f>"Name_"&amp;A2</f>
@@ -1776,7 +1781,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="str">
         <f>"Name_"&amp;A3</f>
@@ -1814,211 +1819,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -2026,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2041,15 +2046,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -2058,7 +2063,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="str">
         <f>"Var_"&amp;B2</f>
@@ -2087,30 +2092,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2122,13 +2127,36 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
